--- a/data/rec_codebook.xlsx
+++ b/data/rec_codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53f41c7bf9ec3dbf/Documents/GitHub/rec_sample_size/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{E0F39564-E180-4F77-931A-7A3AD8EBBB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{724A293C-9A8B-49A7-A42A-AF583011FEB2}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{E0F39564-E180-4F77-931A-7A3AD8EBBB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7829BB7D-0C67-47B9-B8F5-5845FD834410}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="11858" windowHeight="12863" xr2:uid="{EB2015A9-533A-44D2-9409-30EE65C0CC6E}"/>
+    <workbookView xWindow="7995" yWindow="-15465" windowWidth="21600" windowHeight="11160" xr2:uid="{EB2015A9-533A-44D2-9409-30EE65C0CC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,18 +101,12 @@
     <t>further details for how to access the archived form. After opening some of the archived_link urls, you need to select another hyperlink.</t>
   </si>
   <si>
-    <t>whether the form asked for a sample size calculation for the proposed study (1 = yes, explicitly; 0 = no; 99 = indirectly)</t>
-  </si>
-  <si>
     <t>additional notes about the institution or form</t>
   </si>
   <si>
     <t>rank for institutions within each country, based on research expenditure, as identified through the sources outlined in the manuscript</t>
   </si>
   <si>
-    <t>whether the form was available (public = openly available online without credentials; private = shared with us via email, but not openly available online without credentials; declined = a REC representative responded to our email that they will not share a private ethics form; noreply = no one replied ot the email we sent to the REC)</t>
-  </si>
-  <si>
     <t>whether the form explicitly asked for the planned sample size of the proposed study (1 = yes; 0 = no)</t>
   </si>
   <si>
@@ -120,6 +114,12 @@
   </si>
   <si>
     <t>the verbatim text copy-pasted from the form which informed the coding of the variables sample_size, justification, and calculation</t>
+  </si>
+  <si>
+    <t>whether the form was available (public = openly available online without credentials; private = shared with us via email, but not openly available online without credentials; declined = a REC representative responded to our email that they will not share a private ethics form; declined_online = the REC representative responded to our email that they cannot share the ethics form because it is an online submission portal; noreply = no one replied ot the email we sent to the REC)</t>
+  </si>
+  <si>
+    <t>whether the form asked for a sample size calculation for the proposed study (1 = yes, explicitly; 0 = no; 99 = yes, indirectly)</t>
   </si>
 </sst>
 </file>
@@ -172,6 +172,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,7 +478,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -504,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -536,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -560,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -568,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -576,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -584,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -592,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
